--- a/10_calc_hgt_stats/04_combine_tile_hists/gmw_v3_hchm_summary_bounds.xlsx
+++ b/10_calc_hgt_stats/04_combine_tile_hists/gmw_v3_hchm_summary_bounds.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="251">
   <si>
     <t>Country</t>
   </si>
@@ -22,22 +22,19 @@
     <t>Country_Code</t>
   </si>
   <si>
-    <t>0-13</t>
-  </si>
-  <si>
-    <t>13-26</t>
-  </si>
-  <si>
-    <t>26-39</t>
-  </si>
-  <si>
-    <t>39-52</t>
-  </si>
-  <si>
-    <t>52-65</t>
-  </si>
-  <si>
-    <t>65-</t>
+    <t>0-5</t>
+  </si>
+  <si>
+    <t>5-10</t>
+  </si>
+  <si>
+    <t>10-15</t>
+  </si>
+  <si>
+    <t>15-20</t>
+  </si>
+  <si>
+    <t>20-65</t>
   </si>
   <si>
     <t>Angola</t>
@@ -1127,13 +1124,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I123"/>
+  <dimension ref="A1:H123"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1155,54 +1152,48 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>8</v>
-      </c>
       <c r="C2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D2">
-        <v>0.6854295126277558</v>
+        <v>0.05760959540501732</v>
       </c>
       <c r="E2">
-        <v>0.3145704873722443</v>
+        <v>0.4129031168172987</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>0.2774997888335163</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>0.1368156094264718</v>
       </c>
       <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>0.1151718895176957</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -1213,25 +1204,22 @@
       <c r="H3">
         <v>0</v>
       </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>0.6199887410028549</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>0.3800112589971451</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -1242,28 +1230,25 @@
       <c r="H4">
         <v>0</v>
       </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>0.4738461538461539</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>0.4615384615384616</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>0.06461538461538462</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -1271,28 +1256,25 @@
       <c r="H5">
         <v>0</v>
       </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D6">
-        <v>1</v>
+        <v>0.3240283347601351</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>0.5969513450668743</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>0.07902032017299061</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -1300,28 +1282,25 @@
       <c r="H6">
         <v>0</v>
       </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>0.09533007011509459</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>0.6398200820214314</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>0.264849847863474</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -1329,57 +1308,51 @@
       <c r="H7">
         <v>0</v>
       </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C8" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D8">
-        <v>0.7975149491939179</v>
+        <v>0.1210162756581303</v>
       </c>
       <c r="E8">
-        <v>0.2024850508060821</v>
+        <v>0.4093499362758121</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>0.3539002668330041</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>0.1157335212330534</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C9" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D9">
-        <v>0.9419507089161671</v>
+        <v>0.3188105433438005</v>
       </c>
       <c r="E9">
-        <v>0.0580492910838329</v>
+        <v>0.4819354838709677</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>0.1992539727852317</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -1387,57 +1360,51 @@
       <c r="H9">
         <v>0</v>
       </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C10" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D10">
-        <v>0.04805658984799357</v>
+        <v>0.0001907336611740901</v>
       </c>
       <c r="E10">
-        <v>0.9519434101520065</v>
+        <v>0.005191272691086104</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>0.1071674392762072</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>0.645948568253626</v>
       </c>
       <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
+        <v>0.2415019861179066</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C11" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D11">
-        <v>0.9443754969591472</v>
+        <v>0.02977456858573485</v>
       </c>
       <c r="E11">
-        <v>0.05562450304085273</v>
+        <v>0.7415543807620398</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>0.2286710506522253</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -1445,28 +1412,25 @@
       <c r="H11">
         <v>0</v>
       </c>
-      <c r="I11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C12" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D12">
-        <v>1</v>
+        <v>0.3744075829383886</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>0.4900473933649289</v>
       </c>
       <c r="F12">
-        <v>0</v>
+        <v>0.1355450236966825</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -1474,25 +1438,22 @@
       <c r="H12">
         <v>0</v>
       </c>
-      <c r="I12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C13" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D13">
-        <v>1</v>
+        <v>0.4294793756874071</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>0.5705206243125929</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -1503,25 +1464,22 @@
       <c r="H13">
         <v>0</v>
       </c>
-      <c r="I13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C14" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D14">
-        <v>1</v>
+        <v>0.6465947471895952</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>0.3534052528104048</v>
       </c>
       <c r="F14">
         <v>0</v>
@@ -1532,141 +1490,126 @@
       <c r="H14">
         <v>0</v>
       </c>
-      <c r="I14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C15" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D15">
-        <v>0.7777611128817563</v>
+        <v>0.09681471343669736</v>
       </c>
       <c r="E15">
-        <v>0.2222388871182437</v>
+        <v>0.3529499990625996</v>
       </c>
       <c r="F15">
-        <v>0</v>
+        <v>0.4220176606235587</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>0.1282176268771443</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
-      <c r="I15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C16" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D16">
-        <v>0.4506102864027022</v>
+        <v>0.01016955970005391</v>
       </c>
       <c r="E16">
-        <v>0.5493897135972978</v>
+        <v>0.1751909245067651</v>
       </c>
       <c r="F16">
-        <v>0</v>
+        <v>0.3717339020804628</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>0.2476978445850724</v>
       </c>
       <c r="H16">
-        <v>0</v>
-      </c>
-      <c r="I16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+        <v>0.1952077691276458</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C17" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D17">
-        <v>0.7943078229841053</v>
+        <v>0.1272591310143585</v>
       </c>
       <c r="E17">
-        <v>0.2056921770158947</v>
+        <v>0.4478921550697603</v>
       </c>
       <c r="F17">
-        <v>0</v>
+        <v>0.2855923627452176</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>0.1392563511706637</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
-      <c r="I17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C18" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D18">
-        <v>0.3026371656366467</v>
+        <v>0.001320941642685286</v>
       </c>
       <c r="E18">
-        <v>0.6973628343633533</v>
+        <v>0.06524508185120535</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <v>0.3616549511723357</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>0.3612303627871868</v>
       </c>
       <c r="H18">
-        <v>0</v>
-      </c>
-      <c r="I18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+        <v>0.2105486625465868</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C19" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D19">
-        <v>1</v>
+        <v>0.1958192504089071</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>0.8041807495910929</v>
       </c>
       <c r="F19">
         <v>0</v>
@@ -1677,86 +1620,77 @@
       <c r="H19">
         <v>0</v>
       </c>
-      <c r="I19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D20">
-        <v>0.6391958256599141</v>
+        <v>0.07412523020257827</v>
       </c>
       <c r="E20">
-        <v>0.3608041743400859</v>
+        <v>0.2676488643339472</v>
       </c>
       <c r="F20">
-        <v>0</v>
+        <v>0.4071516267648864</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>0.2510742786985881</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
-      <c r="I20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C21" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D21">
-        <v>0.3948950953021826</v>
+        <v>0.0229830083679061</v>
       </c>
       <c r="E21">
-        <v>0.6051049046978174</v>
+        <v>0.145722802451422</v>
       </c>
       <c r="F21">
-        <v>0</v>
+        <v>0.3399716744339521</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>0.3279092098872539</v>
       </c>
       <c r="H21">
-        <v>0</v>
-      </c>
-      <c r="I21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+        <v>0.1634133048594659</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C22" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D22">
-        <v>1</v>
+        <v>0.1645753103253426</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>0.7150780343092996</v>
       </c>
       <c r="F22">
-        <v>0</v>
+        <v>0.1203466553653578</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1764,144 +1698,129 @@
       <c r="H22">
         <v>0</v>
       </c>
-      <c r="I22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C23" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D23">
-        <v>0.336220210365808</v>
+        <v>0.03284864781629002</v>
       </c>
       <c r="E23">
-        <v>0.663779789634192</v>
+        <v>0.1275321625177181</v>
       </c>
       <c r="F23">
-        <v>0</v>
+        <v>0.2754275458336328</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>0.3153073335099694</v>
       </c>
       <c r="H23">
-        <v>0</v>
-      </c>
-      <c r="I23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+        <v>0.2488843103223897</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C24" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D24">
-        <v>0.9160914162143292</v>
+        <v>0.1499373313583216</v>
       </c>
       <c r="E24">
-        <v>0.08390858378567081</v>
+        <v>0.6030340350120125</v>
       </c>
       <c r="F24">
-        <v>0</v>
+        <v>0.18641290513398</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>0.06061572849568592</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
-      <c r="I24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C25" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D25">
-        <v>0.7754476908576814</v>
+        <v>0.1452280457320821</v>
       </c>
       <c r="E25">
-        <v>0.2245523091423186</v>
+        <v>0.3789390648690735</v>
       </c>
       <c r="F25">
-        <v>0</v>
+        <v>0.33871860017211</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>0.1371142892267344</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
-      <c r="I25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C26" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D26">
-        <v>0.8175030387220004</v>
+        <v>0.02691439486021879</v>
       </c>
       <c r="E26">
-        <v>0.1824969612779997</v>
+        <v>0.3050876888348671</v>
       </c>
       <c r="F26">
-        <v>0</v>
+        <v>0.5638131620072929</v>
       </c>
       <c r="G26">
-        <v>0</v>
+        <v>0.1041847542976211</v>
       </c>
       <c r="H26">
         <v>0</v>
       </c>
-      <c r="I26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C27" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D27">
-        <v>1</v>
+        <v>0.2071533109096978</v>
       </c>
       <c r="E27">
-        <v>0</v>
+        <v>0.5744895077192815</v>
       </c>
       <c r="F27">
-        <v>0</v>
+        <v>0.2183571813710207</v>
       </c>
       <c r="G27">
         <v>0</v>
@@ -1909,28 +1828,25 @@
       <c r="H27">
         <v>0</v>
       </c>
-      <c r="I27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C28" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D28">
-        <v>1</v>
+        <v>0.2153793931164911</v>
       </c>
       <c r="E28">
-        <v>0</v>
+        <v>0.5445949058639543</v>
       </c>
       <c r="F28">
-        <v>0</v>
+        <v>0.2400257010195546</v>
       </c>
       <c r="G28">
         <v>0</v>
@@ -1938,57 +1854,51 @@
       <c r="H28">
         <v>0</v>
       </c>
-      <c r="I28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C29" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D29">
-        <v>0.6286701208981001</v>
+        <v>0.001727115716753022</v>
       </c>
       <c r="E29">
-        <v>0.3713298791018999</v>
+        <v>0.1398963730569948</v>
       </c>
       <c r="F29">
-        <v>0</v>
+        <v>0.6424870466321243</v>
       </c>
       <c r="G29">
-        <v>0</v>
+        <v>0.2158894645941278</v>
       </c>
       <c r="H29">
         <v>0</v>
       </c>
-      <c r="I29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C30" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D30">
-        <v>1</v>
+        <v>0.305977229601518</v>
       </c>
       <c r="E30">
-        <v>0</v>
+        <v>0.5399114484503479</v>
       </c>
       <c r="F30">
-        <v>0</v>
+        <v>0.1541113219481341</v>
       </c>
       <c r="G30">
         <v>0</v>
@@ -1996,315 +1906,282 @@
       <c r="H30">
         <v>0</v>
       </c>
-      <c r="I30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C31" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D31">
-        <v>0.7204200311837791</v>
+        <v>0.1549732366019659</v>
       </c>
       <c r="E31">
-        <v>0.2795799688162209</v>
+        <v>0.2568181898837049</v>
       </c>
       <c r="F31">
-        <v>0</v>
+        <v>0.413565424040318</v>
       </c>
       <c r="G31">
-        <v>0</v>
+        <v>0.1746431494740112</v>
       </c>
       <c r="H31">
         <v>0</v>
       </c>
-      <c r="I31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C32" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D32">
-        <v>0.7039057596678414</v>
+        <v>0.02867764206054169</v>
       </c>
       <c r="E32">
-        <v>0.2960942403321585</v>
+        <v>0.2880316709312992</v>
       </c>
       <c r="F32">
-        <v>0</v>
+        <v>0.5118041809491624</v>
       </c>
       <c r="G32">
-        <v>0</v>
+        <v>0.1714865060589968</v>
       </c>
       <c r="H32">
         <v>0</v>
       </c>
-      <c r="I32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C33" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D33">
-        <v>0.7851687607785168</v>
+        <v>0.02414387780241439</v>
       </c>
       <c r="E33">
-        <v>0.2148312392214831</v>
+        <v>0.3683173195368317</v>
       </c>
       <c r="F33">
-        <v>0</v>
+        <v>0.4764720374476472</v>
       </c>
       <c r="G33">
-        <v>0</v>
+        <v>0.1310667652131067</v>
       </c>
       <c r="H33">
         <v>0</v>
       </c>
-      <c r="I33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C34" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D34">
-        <v>0.4340289515354233</v>
+        <v>0.01159258649728973</v>
       </c>
       <c r="E34">
-        <v>0.5659710484645767</v>
+        <v>0.1232753175817528</v>
       </c>
       <c r="F34">
-        <v>0</v>
+        <v>0.4778684289340402</v>
       </c>
       <c r="G34">
-        <v>0</v>
+        <v>0.3344755230758282</v>
       </c>
       <c r="H34">
-        <v>0</v>
-      </c>
-      <c r="I34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
+        <v>0.05278814391108897</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C35" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D35">
-        <v>0.6948802642444261</v>
+        <v>0.003853564547206166</v>
       </c>
       <c r="E35">
-        <v>0.3051197357555739</v>
+        <v>0.1842829617396091</v>
       </c>
       <c r="F35">
-        <v>0</v>
+        <v>0.6658409028351225</v>
       </c>
       <c r="G35">
-        <v>0</v>
+        <v>0.1460225708780622</v>
       </c>
       <c r="H35">
         <v>0</v>
       </c>
-      <c r="I35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C36" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D36">
-        <v>0.8066549456873606</v>
+        <v>0.07062386878641824</v>
       </c>
       <c r="E36">
-        <v>0.1933450543126394</v>
+        <v>0.4815551111430832</v>
       </c>
       <c r="F36">
-        <v>0</v>
+        <v>0.3130782533630674</v>
       </c>
       <c r="G36">
-        <v>0</v>
+        <v>0.1347427667074311</v>
       </c>
       <c r="H36">
         <v>0</v>
       </c>
-      <c r="I36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C37" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D37">
-        <v>0.7392176250226301</v>
+        <v>0.03988595692747099</v>
       </c>
       <c r="E37">
-        <v>0.2607823749773699</v>
+        <v>0.3271256157604285</v>
       </c>
       <c r="F37">
-        <v>0</v>
+        <v>0.4722634030361689</v>
       </c>
       <c r="G37">
-        <v>0</v>
+        <v>0.1607250242759316</v>
       </c>
       <c r="H37">
         <v>0</v>
       </c>
-      <c r="I37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C38" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D38">
-        <v>0.119047619047619</v>
+        <v>0</v>
       </c>
       <c r="E38">
-        <v>0.8809523809523809</v>
+        <v>0.01785714285714286</v>
       </c>
       <c r="F38">
-        <v>0</v>
+        <v>0.1765873015873016</v>
       </c>
       <c r="G38">
-        <v>0</v>
+        <v>0.4206349206349206</v>
       </c>
       <c r="H38">
-        <v>0</v>
-      </c>
-      <c r="I38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
+        <v>0.3849206349206349</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C39" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D39">
-        <v>0.4600630445251959</v>
+        <v>0.06705923558513199</v>
       </c>
       <c r="E39">
-        <v>0.539936955474804</v>
+        <v>0.1847394305561636</v>
       </c>
       <c r="F39">
-        <v>0</v>
+        <v>0.3060344701778965</v>
       </c>
       <c r="G39">
-        <v>0</v>
+        <v>0.2639828962538126</v>
       </c>
       <c r="H39">
-        <v>0</v>
-      </c>
-      <c r="I39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
+        <v>0.1781839674269953</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C40" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D40">
-        <v>0.7880067567567568</v>
+        <v>0.02449324324324324</v>
       </c>
       <c r="E40">
-        <v>0.2119932432432433</v>
+        <v>0.3285472972972973</v>
       </c>
       <c r="F40">
-        <v>0</v>
+        <v>0.5320945945945946</v>
       </c>
       <c r="G40">
-        <v>0</v>
+        <v>0.1148648648648649</v>
       </c>
       <c r="H40">
         <v>0</v>
       </c>
-      <c r="I40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C41" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D41">
-        <v>1</v>
+        <v>0.3032051282051282</v>
       </c>
       <c r="E41">
-        <v>0</v>
+        <v>0.6967948717948718</v>
       </c>
       <c r="F41">
         <v>0</v>
@@ -2315,28 +2192,25 @@
       <c r="H41">
         <v>0</v>
       </c>
-      <c r="I41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C42" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D42">
-        <v>1</v>
+        <v>0.4457801766437684</v>
       </c>
       <c r="E42">
-        <v>0</v>
+        <v>0.4744672648254591</v>
       </c>
       <c r="F42">
-        <v>0</v>
+        <v>0.07975255853077247</v>
       </c>
       <c r="G42">
         <v>0</v>
@@ -2344,28 +2218,25 @@
       <c r="H42">
         <v>0</v>
       </c>
-      <c r="I42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C43" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D43">
-        <v>0.9555555555555556</v>
+        <v>0</v>
       </c>
       <c r="E43">
-        <v>0.04444444444444445</v>
+        <v>0.6555555555555556</v>
       </c>
       <c r="F43">
-        <v>0</v>
+        <v>0.3444444444444444</v>
       </c>
       <c r="G43">
         <v>0</v>
@@ -2373,28 +2244,25 @@
       <c r="H43">
         <v>0</v>
       </c>
-      <c r="I43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C44" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D44">
-        <v>1</v>
+        <v>0.198581560283688</v>
       </c>
       <c r="E44">
-        <v>0</v>
+        <v>0.5370728562217923</v>
       </c>
       <c r="F44">
-        <v>0</v>
+        <v>0.2643455834945196</v>
       </c>
       <c r="G44">
         <v>0</v>
@@ -2402,57 +2270,51 @@
       <c r="H44">
         <v>0</v>
       </c>
-      <c r="I44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C45" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D45">
-        <v>0.6471207147251027</v>
+        <v>0.04285384587708883</v>
       </c>
       <c r="E45">
-        <v>0.3528792852748973</v>
+        <v>0.2577127708585073</v>
       </c>
       <c r="F45">
-        <v>0</v>
+        <v>0.4853379034742021</v>
       </c>
       <c r="G45">
-        <v>0</v>
+        <v>0.2140954797902017</v>
       </c>
       <c r="H45">
         <v>0</v>
       </c>
-      <c r="I45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9">
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C46" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D46">
-        <v>0.892841080065411</v>
+        <v>0.1084320815192446</v>
       </c>
       <c r="E46">
-        <v>0.107158919934589</v>
+        <v>0.5325867091463897</v>
       </c>
       <c r="F46">
-        <v>0</v>
+        <v>0.3589812093343656</v>
       </c>
       <c r="G46">
         <v>0</v>
@@ -2460,83 +2322,74 @@
       <c r="H46">
         <v>0</v>
       </c>
-      <c r="I46">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C47" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D47">
-        <v>0.7082066869300911</v>
+        <v>0</v>
       </c>
       <c r="E47">
-        <v>0.2917933130699088</v>
+        <v>0.3009118541033435</v>
       </c>
       <c r="F47">
-        <v>0</v>
+        <v>0.5227963525835866</v>
       </c>
       <c r="G47">
-        <v>0</v>
+        <v>0.06990881458966565</v>
       </c>
       <c r="H47">
-        <v>0</v>
-      </c>
-      <c r="I47">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
+        <v>0.1063829787234043</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C48" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D48">
-        <v>0.2037714687660784</v>
+        <v>0.02708810286570261</v>
       </c>
       <c r="E48">
-        <v>0.702411793293149</v>
+        <v>0.08214095748844268</v>
       </c>
       <c r="F48">
-        <v>0.09381673794077262</v>
+        <v>0.149658576565714</v>
       </c>
       <c r="G48">
-        <v>0</v>
+        <v>0.2709064236447513</v>
       </c>
       <c r="H48">
-        <v>0</v>
-      </c>
-      <c r="I48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
+        <v>0.4702059394353894</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C49" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D49">
-        <v>1</v>
+        <v>0.2216732542819499</v>
       </c>
       <c r="E49">
-        <v>0</v>
+        <v>0.7783267457180501</v>
       </c>
       <c r="F49">
         <v>0</v>
@@ -2547,86 +2400,77 @@
       <c r="H49">
         <v>0</v>
       </c>
-      <c r="I49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C50" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D50">
-        <v>0.9030303030303031</v>
+        <v>0.103030303030303</v>
       </c>
       <c r="E50">
-        <v>0.09696969696969697</v>
+        <v>0.4787878787878788</v>
       </c>
       <c r="F50">
-        <v>0</v>
+        <v>0.3636363636363636</v>
       </c>
       <c r="G50">
-        <v>0</v>
+        <v>0.05454545454545454</v>
       </c>
       <c r="H50">
         <v>0</v>
       </c>
-      <c r="I50">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9">
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C51" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D51">
-        <v>0.3812255925716016</v>
+        <v>0.01683449402058441</v>
       </c>
       <c r="E51">
-        <v>0.6187744074283984</v>
+        <v>0.1312236516230212</v>
       </c>
       <c r="F51">
-        <v>0</v>
+        <v>0.3448858592838159</v>
       </c>
       <c r="G51">
-        <v>0</v>
+        <v>0.2927105735114865</v>
       </c>
       <c r="H51">
-        <v>0</v>
-      </c>
-      <c r="I51">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
+        <v>0.214345421561092</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C52" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D52">
-        <v>0.8916141474345211</v>
+        <v>0.1361273853221953</v>
       </c>
       <c r="E52">
-        <v>0.108385852565479</v>
+        <v>0.4966029304853267</v>
       </c>
       <c r="F52">
-        <v>0</v>
+        <v>0.367269684192478</v>
       </c>
       <c r="G52">
         <v>0</v>
@@ -2634,144 +2478,129 @@
       <c r="H52">
         <v>0</v>
       </c>
-      <c r="I52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9">
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C53" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D53">
-        <v>0.9491525423728814</v>
+        <v>0.0614406779661017</v>
       </c>
       <c r="E53">
-        <v>0.05084745762711865</v>
+        <v>0.5</v>
       </c>
       <c r="F53">
-        <v>0</v>
+        <v>0.4110169491525424</v>
       </c>
       <c r="G53">
-        <v>0</v>
+        <v>0.02754237288135593</v>
       </c>
       <c r="H53">
         <v>0</v>
       </c>
-      <c r="I53">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9">
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C54" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D54">
-        <v>0.8410404624277457</v>
+        <v>0.008670520231213872</v>
       </c>
       <c r="E54">
-        <v>0.1271676300578035</v>
+        <v>0.3265895953757225</v>
       </c>
       <c r="F54">
-        <v>0.03179190751445087</v>
+        <v>0.5982658959537572</v>
       </c>
       <c r="G54">
-        <v>0</v>
+        <v>0.0115606936416185</v>
       </c>
       <c r="H54">
-        <v>0</v>
-      </c>
-      <c r="I54">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9">
+        <v>0.05491329479768786</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C55" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D55">
-        <v>0.6345575741733107</v>
+        <v>0.0009149130832570906</v>
       </c>
       <c r="E55">
-        <v>0.3654424258266893</v>
+        <v>0.07763691020781598</v>
       </c>
       <c r="F55">
-        <v>0</v>
+        <v>0.7736243628283884</v>
       </c>
       <c r="G55">
-        <v>0</v>
+        <v>0.1478238138805385</v>
       </c>
       <c r="H55">
         <v>0</v>
       </c>
-      <c r="I55">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9">
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C56" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D56">
-        <v>0.2847461025802619</v>
+        <v>0.01567748532512645</v>
       </c>
       <c r="E56">
-        <v>0.6342926854177902</v>
+        <v>0.1052269078581099</v>
       </c>
       <c r="F56">
-        <v>0.08096121200194793</v>
+        <v>0.2402544267489348</v>
       </c>
       <c r="G56">
-        <v>0</v>
+        <v>0.2588469590971761</v>
       </c>
       <c r="H56">
-        <v>0</v>
-      </c>
-      <c r="I56">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9">
+        <v>0.3799942209706527</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C57" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D57">
-        <v>1</v>
+        <v>0.1136210384356035</v>
       </c>
       <c r="E57">
-        <v>0</v>
+        <v>0.6804899977523039</v>
       </c>
       <c r="F57">
-        <v>0</v>
+        <v>0.2058889638120926</v>
       </c>
       <c r="G57">
         <v>0</v>
@@ -2779,54 +2608,48 @@
       <c r="H57">
         <v>0</v>
       </c>
-      <c r="I57">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9">
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C58" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D58">
-        <v>0.8412686750286162</v>
+        <v>0.08951862763036646</v>
       </c>
       <c r="E58">
-        <v>0.1587313249713838</v>
+        <v>0.437892690362482</v>
       </c>
       <c r="F58">
-        <v>0</v>
+        <v>0.3840277590627581</v>
       </c>
       <c r="G58">
-        <v>0</v>
+        <v>0.08856092294439347</v>
       </c>
       <c r="H58">
         <v>0</v>
       </c>
-      <c r="I58">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9">
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C59" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D59">
-        <v>1</v>
+        <v>0.5184009048199061</v>
       </c>
       <c r="E59">
-        <v>0</v>
+        <v>0.481599095180094</v>
       </c>
       <c r="F59">
         <v>0</v>
@@ -2837,28 +2660,25 @@
       <c r="H59">
         <v>0</v>
       </c>
-      <c r="I59">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9">
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C60" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D60">
-        <v>1</v>
+        <v>0.01370558375634518</v>
       </c>
       <c r="E60">
-        <v>0</v>
+        <v>0.3416243654822335</v>
       </c>
       <c r="F60">
-        <v>0</v>
+        <v>0.6446700507614214</v>
       </c>
       <c r="G60">
         <v>0</v>
@@ -2866,57 +2686,51 @@
       <c r="H60">
         <v>0</v>
       </c>
-      <c r="I60">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9">
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C61" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D61">
-        <v>0.67186524727347</v>
+        <v>0.02045079725412482</v>
       </c>
       <c r="E61">
-        <v>0.3281347527265301</v>
+        <v>0.2494417630415217</v>
       </c>
       <c r="F61">
-        <v>0</v>
+        <v>0.5583188544417271</v>
       </c>
       <c r="G61">
-        <v>0</v>
+        <v>0.1717885852626264</v>
       </c>
       <c r="H61">
         <v>0</v>
       </c>
-      <c r="I61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9">
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C62" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D62">
-        <v>1</v>
+        <v>0.2626262626262627</v>
       </c>
       <c r="E62">
-        <v>0</v>
+        <v>0.5318181818181819</v>
       </c>
       <c r="F62">
-        <v>0</v>
+        <v>0.2055555555555555</v>
       </c>
       <c r="G62">
         <v>0</v>
@@ -2924,115 +2738,103 @@
       <c r="H62">
         <v>0</v>
       </c>
-      <c r="I62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9">
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C63" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D63">
-        <v>0.32952341292889</v>
+        <v>0.01160509791458911</v>
       </c>
       <c r="E63">
-        <v>0.67047658707111</v>
+        <v>0.08495063176005173</v>
       </c>
       <c r="F63">
-        <v>0</v>
+        <v>0.3835051998290467</v>
       </c>
       <c r="G63">
-        <v>0</v>
+        <v>0.3726891170701237</v>
       </c>
       <c r="H63">
-        <v>0</v>
-      </c>
-      <c r="I63">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9">
+        <v>0.1472499534261887</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C64" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D64">
-        <v>0.6408059293056976</v>
+        <v>0.04526003778479121</v>
       </c>
       <c r="E64">
-        <v>0.2696183407047494</v>
+        <v>0.3886859502545949</v>
       </c>
       <c r="F64">
-        <v>0.08957572998955297</v>
+        <v>0.2641930150234304</v>
       </c>
       <c r="G64">
-        <v>0</v>
+        <v>0.1219445183261721</v>
       </c>
       <c r="H64">
-        <v>0</v>
-      </c>
-      <c r="I64">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9">
+        <v>0.1799164786110113</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C65" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D65">
-        <v>0.8627469477921118</v>
+        <v>0.3851167032224083</v>
       </c>
       <c r="E65">
-        <v>0.1372530522078882</v>
+        <v>0.4203910285134785</v>
       </c>
       <c r="F65">
-        <v>0</v>
+        <v>0.06699527526866504</v>
       </c>
       <c r="G65">
-        <v>0</v>
+        <v>0.03074613020133173</v>
       </c>
       <c r="H65">
-        <v>0</v>
-      </c>
-      <c r="I65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9">
+        <v>0.09675086279411649</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C66" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D66">
-        <v>0.9055182864195319</v>
+        <v>0.04530076784889549</v>
       </c>
       <c r="E66">
-        <v>0.09448171358046813</v>
+        <v>0.5224112710517413</v>
       </c>
       <c r="F66">
-        <v>0</v>
+        <v>0.4322879610993631</v>
       </c>
       <c r="G66">
         <v>0</v>
@@ -3040,28 +2842,25 @@
       <c r="H66">
         <v>0</v>
       </c>
-      <c r="I66">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9">
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C67" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D67">
-        <v>0.8638132295719845</v>
+        <v>0.003891050583657588</v>
       </c>
       <c r="E67">
-        <v>0.1361867704280156</v>
+        <v>0.1634241245136187</v>
       </c>
       <c r="F67">
-        <v>0</v>
+        <v>0.8326848249027238</v>
       </c>
       <c r="G67">
         <v>0</v>
@@ -3069,57 +2868,51 @@
       <c r="H67">
         <v>0</v>
       </c>
-      <c r="I67">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9">
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C68" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D68">
-        <v>0.5023846461987619</v>
+        <v>0.04449829817929064</v>
       </c>
       <c r="E68">
-        <v>0.4976153538012381</v>
+        <v>0.2133362189003346</v>
       </c>
       <c r="F68">
-        <v>0</v>
+        <v>0.3614118917200382</v>
       </c>
       <c r="G68">
-        <v>0</v>
+        <v>0.2643104766701732</v>
       </c>
       <c r="H68">
-        <v>0</v>
-      </c>
-      <c r="I68">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9">
+        <v>0.1164431145301634</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C69" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D69">
-        <v>0.7777777777777778</v>
+        <v>0</v>
       </c>
       <c r="E69">
-        <v>0.2222222222222222</v>
+        <v>0.2991452991452991</v>
       </c>
       <c r="F69">
-        <v>0</v>
+        <v>0.7008547008547008</v>
       </c>
       <c r="G69">
         <v>0</v>
@@ -3127,54 +2920,48 @@
       <c r="H69">
         <v>0</v>
       </c>
-      <c r="I69">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9">
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C70" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D70">
-        <v>0.2127333652465294</v>
+        <v>0.02374341790330302</v>
       </c>
       <c r="E70">
-        <v>0.7872666347534706</v>
+        <v>0.07952277497514453</v>
       </c>
       <c r="F70">
-        <v>0</v>
+        <v>0.1764627904407703</v>
       </c>
       <c r="G70">
-        <v>0</v>
+        <v>0.3987627499355599</v>
       </c>
       <c r="H70">
-        <v>0</v>
-      </c>
-      <c r="I70">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9">
+        <v>0.3215082667452222</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C71" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D71">
-        <v>1</v>
+        <v>0.3338683788121991</v>
       </c>
       <c r="E71">
-        <v>0</v>
+        <v>0.666131621187801</v>
       </c>
       <c r="F71">
         <v>0</v>
@@ -3185,28 +2972,25 @@
       <c r="H71">
         <v>0</v>
       </c>
-      <c r="I71">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9">
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C72" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E72">
-        <v>0</v>
+        <v>0.4782608695652174</v>
       </c>
       <c r="F72">
-        <v>0</v>
+        <v>0.5217391304347826</v>
       </c>
       <c r="G72">
         <v>0</v>
@@ -3214,86 +2998,77 @@
       <c r="H72">
         <v>0</v>
       </c>
-      <c r="I72">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9">
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C73" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D73">
-        <v>0.446491780759916</v>
+        <v>0.06046984123334941</v>
       </c>
       <c r="E73">
-        <v>0.4754446565420208</v>
+        <v>0.1796536718784238</v>
       </c>
       <c r="F73">
-        <v>0.07806356269806318</v>
+        <v>0.3014526009812367</v>
       </c>
       <c r="G73">
-        <v>0</v>
+        <v>0.2190662230578404</v>
       </c>
       <c r="H73">
-        <v>0</v>
-      </c>
-      <c r="I73">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9">
+        <v>0.2393576628491498</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C74" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D74">
-        <v>0.3388510223953262</v>
+        <v>0</v>
       </c>
       <c r="E74">
-        <v>0.6611489776046738</v>
+        <v>0.06134371957156767</v>
       </c>
       <c r="F74">
-        <v>0</v>
+        <v>0.442064264849075</v>
       </c>
       <c r="G74">
-        <v>0</v>
+        <v>0.4342745861733204</v>
       </c>
       <c r="H74">
-        <v>0</v>
-      </c>
-      <c r="I74">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9">
+        <v>0.062317429406037</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C75" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D75">
-        <v>0.9383372012540206</v>
+        <v>0.01703920850128252</v>
       </c>
       <c r="E75">
-        <v>0.0616627987459794</v>
+        <v>0.416656487928016</v>
       </c>
       <c r="F75">
-        <v>0</v>
+        <v>0.5663043035707015</v>
       </c>
       <c r="G75">
         <v>0</v>
@@ -3301,28 +3076,25 @@
       <c r="H75">
         <v>0</v>
       </c>
-      <c r="I75">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9">
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C76" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D76">
-        <v>0.8961606998218047</v>
+        <v>0.06739024785355581</v>
       </c>
       <c r="E76">
-        <v>0.1038393001781954</v>
+        <v>0.416167179653329</v>
       </c>
       <c r="F76">
-        <v>0</v>
+        <v>0.5164425724931152</v>
       </c>
       <c r="G76">
         <v>0</v>
@@ -3330,28 +3102,25 @@
       <c r="H76">
         <v>0</v>
       </c>
-      <c r="I76">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9">
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C77" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D77">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E77">
-        <v>0</v>
+        <v>0.7857142857142857</v>
       </c>
       <c r="F77">
-        <v>0</v>
+        <v>0.2142857142857143</v>
       </c>
       <c r="G77">
         <v>0</v>
@@ -3359,86 +3128,77 @@
       <c r="H77">
         <v>0</v>
       </c>
-      <c r="I77">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9">
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C78" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D78">
-        <v>0.7783851913352706</v>
+        <v>0.06316489694253689</v>
       </c>
       <c r="E78">
-        <v>0.2216148086647294</v>
+        <v>0.4215127765246052</v>
       </c>
       <c r="F78">
-        <v>0</v>
+        <v>0.3719471633564573</v>
       </c>
       <c r="G78">
-        <v>0</v>
+        <v>0.1433751631764006</v>
       </c>
       <c r="H78">
         <v>0</v>
       </c>
-      <c r="I78">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9">
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C79" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D79">
-        <v>0.5334229939106074</v>
+        <v>0.04534923719184129</v>
       </c>
       <c r="E79">
-        <v>0.4665770060893925</v>
+        <v>0.2110153103028454</v>
       </c>
       <c r="F79">
-        <v>0</v>
+        <v>0.3927555838138229</v>
       </c>
       <c r="G79">
-        <v>0</v>
+        <v>0.2385968317728563</v>
       </c>
       <c r="H79">
-        <v>0</v>
-      </c>
-      <c r="I79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9">
+        <v>0.112283036918634</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C80" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D80">
-        <v>0.9220207969727494</v>
+        <v>0.09245168554232164</v>
       </c>
       <c r="E80">
-        <v>0.07797920302725062</v>
+        <v>0.546999656034184</v>
       </c>
       <c r="F80">
-        <v>0</v>
+        <v>0.3605486584234944</v>
       </c>
       <c r="G80">
         <v>0</v>
@@ -3446,28 +3206,25 @@
       <c r="H80">
         <v>0</v>
       </c>
-      <c r="I80">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9">
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C81" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D81">
-        <v>0.9094882084547303</v>
+        <v>0.06797317354735859</v>
       </c>
       <c r="E81">
-        <v>0.09051179154526964</v>
+        <v>0.4780111043922819</v>
       </c>
       <c r="F81">
-        <v>0</v>
+        <v>0.4540157220603595</v>
       </c>
       <c r="G81">
         <v>0</v>
@@ -3475,57 +3232,51 @@
       <c r="H81">
         <v>0</v>
       </c>
-      <c r="I81">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9">
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C82" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D82">
-        <v>0.9036175188559115</v>
+        <v>0.1183636986972279</v>
       </c>
       <c r="E82">
-        <v>0.09638248114408855</v>
+        <v>0.612181959545499</v>
       </c>
       <c r="F82">
-        <v>0</v>
+        <v>0.2079843765305123</v>
       </c>
       <c r="G82">
-        <v>0</v>
+        <v>0.0614699652267607</v>
       </c>
       <c r="H82">
         <v>0</v>
       </c>
-      <c r="I82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9">
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C83" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D83">
-        <v>0.9328679284492825</v>
+        <v>0.02518751507957613</v>
       </c>
       <c r="E83">
-        <v>0.06713207155071757</v>
+        <v>0.4527046375530317</v>
       </c>
       <c r="F83">
-        <v>0</v>
+        <v>0.5221078473673922</v>
       </c>
       <c r="G83">
         <v>0</v>
@@ -3533,144 +3284,129 @@
       <c r="H83">
         <v>0</v>
       </c>
-      <c r="I83">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9">
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C84" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D84">
-        <v>0.7284789180468756</v>
+        <v>0.09947681475171317</v>
       </c>
       <c r="E84">
-        <v>0.2715210819531244</v>
+        <v>0.3925849422159232</v>
       </c>
       <c r="F84">
-        <v>0</v>
+        <v>0.3024410285791826</v>
       </c>
       <c r="G84">
-        <v>0</v>
+        <v>0.1211128617629986</v>
       </c>
       <c r="H84">
-        <v>0</v>
-      </c>
-      <c r="I84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9">
+        <v>0.08438435269018237</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C85" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D85">
-        <v>0.5592369477911646</v>
+        <v>0.008534136546184739</v>
       </c>
       <c r="E85">
-        <v>0.4407630522088353</v>
+        <v>0.2038152610441767</v>
       </c>
       <c r="F85">
-        <v>0</v>
+        <v>0.5732931726907631</v>
       </c>
       <c r="G85">
-        <v>0</v>
+        <v>0.2143574297188755</v>
       </c>
       <c r="H85">
         <v>0</v>
       </c>
-      <c r="I85">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9">
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C86" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D86">
-        <v>0.488631092237312</v>
+        <v>0.02667893631224236</v>
       </c>
       <c r="E86">
-        <v>0.511368907762688</v>
+        <v>0.1772787786674109</v>
       </c>
       <c r="F86">
-        <v>0</v>
+        <v>0.4211756985589452</v>
       </c>
       <c r="G86">
-        <v>0</v>
+        <v>0.2728877289715749</v>
       </c>
       <c r="H86">
-        <v>0</v>
-      </c>
-      <c r="I86">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9">
+        <v>0.1019788574898266</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C87" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D87">
-        <v>0.2968792610773189</v>
+        <v>0.04017318994375872</v>
       </c>
       <c r="E87">
-        <v>0.6161759881747076</v>
+        <v>0.1208555156372892</v>
       </c>
       <c r="F87">
-        <v>0.08694475074797346</v>
+        <v>0.2062272495524016</v>
       </c>
       <c r="G87">
-        <v>0</v>
+        <v>0.249819182110293</v>
       </c>
       <c r="H87">
-        <v>0</v>
-      </c>
-      <c r="I87">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9">
+        <v>0.3829248627562575</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C88" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D88">
-        <v>1</v>
+        <v>0.07620817843866171</v>
       </c>
       <c r="E88">
-        <v>0</v>
+        <v>0.6022304832713755</v>
       </c>
       <c r="F88">
-        <v>0</v>
+        <v>0.3215613382899628</v>
       </c>
       <c r="G88">
         <v>0</v>
@@ -3678,25 +3414,22 @@
       <c r="H88">
         <v>0</v>
       </c>
-      <c r="I88">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9">
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C89" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D89">
-        <v>1</v>
+        <v>0.3163273893569472</v>
       </c>
       <c r="E89">
-        <v>0</v>
+        <v>0.6836726106430528</v>
       </c>
       <c r="F89">
         <v>0</v>
@@ -3707,25 +3440,22 @@
       <c r="H89">
         <v>0</v>
       </c>
-      <c r="I89">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9">
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C90" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D90">
-        <v>1</v>
+        <v>0.4477174583590376</v>
       </c>
       <c r="E90">
-        <v>0</v>
+        <v>0.5522825416409624</v>
       </c>
       <c r="F90">
         <v>0</v>
@@ -3736,28 +3466,25 @@
       <c r="H90">
         <v>0</v>
       </c>
-      <c r="I90">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9">
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C91" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D91">
-        <v>1</v>
+        <v>0.3470309212168765</v>
       </c>
       <c r="E91">
-        <v>0</v>
+        <v>0.5013653061158322</v>
       </c>
       <c r="F91">
-        <v>0</v>
+        <v>0.1516037726672913</v>
       </c>
       <c r="G91">
         <v>0</v>
@@ -3765,144 +3492,129 @@
       <c r="H91">
         <v>0</v>
       </c>
-      <c r="I91">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9">
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C92" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D92">
-        <v>0.8446479127763388</v>
+        <v>0.04379254261791458</v>
       </c>
       <c r="E92">
-        <v>0.1553520872236612</v>
+        <v>0.3295584603337148</v>
       </c>
       <c r="F92">
-        <v>0</v>
+        <v>0.5653273899162701</v>
       </c>
       <c r="G92">
-        <v>0</v>
+        <v>0.06132160713210048</v>
       </c>
       <c r="H92">
         <v>0</v>
       </c>
-      <c r="I92">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9">
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C93" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D93">
-        <v>0.7316195220397297</v>
+        <v>0.03734035368997619</v>
       </c>
       <c r="E93">
-        <v>0.2683804779602703</v>
+        <v>0.3580818580654821</v>
       </c>
       <c r="F93">
-        <v>0</v>
+        <v>0.4384224160653043</v>
       </c>
       <c r="G93">
-        <v>0</v>
+        <v>0.1661553721792375</v>
       </c>
       <c r="H93">
         <v>0</v>
       </c>
-      <c r="I93">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9">
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C94" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D94">
-        <v>0.8603245885284212</v>
+        <v>0.1545327288921428</v>
       </c>
       <c r="E94">
-        <v>0.1396754114715789</v>
+        <v>0.4997718522375882</v>
       </c>
       <c r="F94">
-        <v>0</v>
+        <v>0.2510050746765006</v>
       </c>
       <c r="G94">
-        <v>0</v>
+        <v>0.09469034419376834</v>
       </c>
       <c r="H94">
         <v>0</v>
       </c>
-      <c r="I94">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9">
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C95" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D95">
-        <v>0.6413776896673274</v>
+        <v>0.0118524111069167</v>
       </c>
       <c r="E95">
-        <v>0.3586223103326725</v>
+        <v>0.2297932765504259</v>
       </c>
       <c r="F95">
-        <v>0</v>
+        <v>0.5181411139416454</v>
       </c>
       <c r="G95">
-        <v>0</v>
+        <v>0.1622737829466279</v>
       </c>
       <c r="H95">
-        <v>0</v>
-      </c>
-      <c r="I95">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9">
+        <v>0.0779394154543841</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C96" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D96">
-        <v>1</v>
+        <v>0.2455867926114864</v>
       </c>
       <c r="E96">
-        <v>0</v>
+        <v>0.5703506460745018</v>
       </c>
       <c r="F96">
-        <v>0</v>
+        <v>0.1840625613140118</v>
       </c>
       <c r="G96">
         <v>0</v>
@@ -3910,28 +3622,25 @@
       <c r="H96">
         <v>0</v>
       </c>
-      <c r="I96">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9">
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C97" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D97">
-        <v>1</v>
+        <v>0.1736427863837755</v>
       </c>
       <c r="E97">
-        <v>0</v>
+        <v>0.6827271638671472</v>
       </c>
       <c r="F97">
-        <v>0</v>
+        <v>0.1436300497490774</v>
       </c>
       <c r="G97">
         <v>0</v>
@@ -3939,28 +3648,25 @@
       <c r="H97">
         <v>0</v>
       </c>
-      <c r="I97">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9">
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C98" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D98">
-        <v>0.9051140074220116</v>
+        <v>0.1116768237009158</v>
       </c>
       <c r="E98">
-        <v>0.09488599257798838</v>
+        <v>0.5117628670382831</v>
       </c>
       <c r="F98">
-        <v>0</v>
+        <v>0.3765603092608011</v>
       </c>
       <c r="G98">
         <v>0</v>
@@ -3968,28 +3674,25 @@
       <c r="H98">
         <v>0</v>
       </c>
-      <c r="I98">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9">
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C99" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D99">
-        <v>0.7837314396384765</v>
+        <v>0.009683666881859263</v>
       </c>
       <c r="E99">
-        <v>0.2162685603615236</v>
+        <v>0.1271788250484183</v>
       </c>
       <c r="F99">
-        <v>0</v>
+        <v>0.8631375080697224</v>
       </c>
       <c r="G99">
         <v>0</v>
@@ -3997,28 +3700,25 @@
       <c r="H99">
         <v>0</v>
       </c>
-      <c r="I99">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9">
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C100" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D100">
-        <v>1</v>
+        <v>0.3140243902439024</v>
       </c>
       <c r="E100">
-        <v>0</v>
+        <v>0.5579268292682927</v>
       </c>
       <c r="F100">
-        <v>0</v>
+        <v>0.1280487804878049</v>
       </c>
       <c r="G100">
         <v>0</v>
@@ -4026,25 +3726,22 @@
       <c r="H100">
         <v>0</v>
       </c>
-      <c r="I100">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9">
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C101" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D101">
-        <v>1</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="E101">
-        <v>0</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="F101">
         <v>0</v>
@@ -4055,57 +3752,51 @@
       <c r="H101">
         <v>0</v>
       </c>
-      <c r="I101">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9">
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C102" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D102">
-        <v>0.7189777207537621</v>
+        <v>0.04084517017130582</v>
       </c>
       <c r="E102">
-        <v>0.2810222792462378</v>
+        <v>0.2684531594009178</v>
       </c>
       <c r="F102">
-        <v>0</v>
+        <v>0.5419625016674023</v>
       </c>
       <c r="G102">
-        <v>0</v>
+        <v>0.148739168760374</v>
       </c>
       <c r="H102">
         <v>0</v>
       </c>
-      <c r="I102">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9">
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C103" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D103">
-        <v>0.8948948948948949</v>
+        <v>0.02202202202202202</v>
       </c>
       <c r="E103">
-        <v>0.1051051051051051</v>
+        <v>0.4294294294294294</v>
       </c>
       <c r="F103">
-        <v>0</v>
+        <v>0.5485485485485485</v>
       </c>
       <c r="G103">
         <v>0</v>
@@ -4113,86 +3804,77 @@
       <c r="H103">
         <v>0</v>
       </c>
-      <c r="I103">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9">
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C104" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D104">
-        <v>0.8641129464028682</v>
+        <v>0.269668684309789</v>
       </c>
       <c r="E104">
-        <v>0.1358870535971318</v>
+        <v>0.4183586332400472</v>
       </c>
       <c r="F104">
-        <v>0</v>
+        <v>0.2234724949271943</v>
       </c>
       <c r="G104">
-        <v>0</v>
+        <v>0.08850018752296955</v>
       </c>
       <c r="H104">
         <v>0</v>
       </c>
-      <c r="I104">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9">
+    </row>
+    <row r="105" spans="1:8">
       <c r="A105" s="1">
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C105" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D105">
-        <v>0.6017441860465116</v>
+        <v>0</v>
       </c>
       <c r="E105">
-        <v>0.3982558139534884</v>
+        <v>0.125</v>
       </c>
       <c r="F105">
-        <v>0</v>
+        <v>0.6569767441860465</v>
       </c>
       <c r="G105">
-        <v>0</v>
+        <v>0.2180232558139535</v>
       </c>
       <c r="H105">
         <v>0</v>
       </c>
-      <c r="I105">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9">
+    </row>
+    <row r="106" spans="1:8">
       <c r="A106" s="1">
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C106" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D106">
-        <v>1</v>
+        <v>0.2782625453082092</v>
       </c>
       <c r="E106">
-        <v>0</v>
+        <v>0.6003808865247222</v>
       </c>
       <c r="F106">
-        <v>0</v>
+        <v>0.1213565681670686</v>
       </c>
       <c r="G106">
         <v>0</v>
@@ -4200,144 +3882,129 @@
       <c r="H106">
         <v>0</v>
       </c>
-      <c r="I106">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9">
+    </row>
+    <row r="107" spans="1:8">
       <c r="A107" s="1">
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C107" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D107">
-        <v>0.8519904335750655</v>
+        <v>0.1031476623977781</v>
       </c>
       <c r="E107">
-        <v>0.1480095664249344</v>
+        <v>0.3581623206295325</v>
       </c>
       <c r="F107">
-        <v>0</v>
+        <v>0.4758717790464435</v>
       </c>
       <c r="G107">
-        <v>0</v>
+        <v>0.06281823792624595</v>
       </c>
       <c r="H107">
         <v>0</v>
       </c>
-      <c r="I107">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9">
+    </row>
+    <row r="108" spans="1:8">
       <c r="A108" s="1">
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C108" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D108">
-        <v>0.8998219673571635</v>
+        <v>0.1510445540247717</v>
       </c>
       <c r="E108">
-        <v>0.1001780326428365</v>
+        <v>0.5086386417831074</v>
       </c>
       <c r="F108">
-        <v>0</v>
+        <v>0.2854149733060236</v>
       </c>
       <c r="G108">
-        <v>0</v>
+        <v>0.05490183088609733</v>
       </c>
       <c r="H108">
         <v>0</v>
       </c>
-      <c r="I108">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9">
+    </row>
+    <row r="109" spans="1:8">
       <c r="A109" s="1">
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C109" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D109">
-        <v>0.3144813892441273</v>
+        <v>0.000151443763882345</v>
       </c>
       <c r="E109">
-        <v>0.6855186107558726</v>
+        <v>0.02596419196338426</v>
       </c>
       <c r="F109">
-        <v>0</v>
+        <v>0.4769973749747594</v>
       </c>
       <c r="G109">
-        <v>0</v>
+        <v>0.383506091404725</v>
       </c>
       <c r="H109">
-        <v>0</v>
-      </c>
-      <c r="I109">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9">
+        <v>0.113380897893249</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8">
       <c r="A110" s="1">
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C110" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D110">
-        <v>0.1543121227638551</v>
+        <v>0.01092484859218647</v>
       </c>
       <c r="E110">
-        <v>0.8456878772361448</v>
+        <v>0.04802099282114991</v>
       </c>
       <c r="F110">
-        <v>0</v>
+        <v>0.1888654456504023</v>
       </c>
       <c r="G110">
-        <v>0</v>
+        <v>0.4434333478356287</v>
       </c>
       <c r="H110">
-        <v>0</v>
-      </c>
-      <c r="I110">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9">
+        <v>0.3087553651006327</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8">
       <c r="A111" s="1">
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C111" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D111">
-        <v>1</v>
+        <v>0.2727272727272727</v>
       </c>
       <c r="E111">
-        <v>0</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="F111">
-        <v>0</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="G111">
         <v>0</v>
@@ -4345,54 +4012,48 @@
       <c r="H111">
         <v>0</v>
       </c>
-      <c r="I111">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9">
+    </row>
+    <row r="112" spans="1:8">
       <c r="A112" s="1">
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C112" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D112">
-        <v>0.7119362073261899</v>
+        <v>0.05183154747072016</v>
       </c>
       <c r="E112">
-        <v>0.2880637926738101</v>
+        <v>0.2337403438823823</v>
       </c>
       <c r="F112">
-        <v>0</v>
+        <v>0.5746324445551956</v>
       </c>
       <c r="G112">
-        <v>0</v>
+        <v>0.139795664091702</v>
       </c>
       <c r="H112">
         <v>0</v>
       </c>
-      <c r="I112">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9">
+    </row>
+    <row r="113" spans="1:8">
       <c r="A113" s="1">
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C113" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D113">
-        <v>1</v>
+        <v>0.1284928634598602</v>
       </c>
       <c r="E113">
-        <v>0</v>
+        <v>0.8715071365401398</v>
       </c>
       <c r="F113">
         <v>0</v>
@@ -4403,86 +4064,77 @@
       <c r="H113">
         <v>0</v>
       </c>
-      <c r="I113">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9">
+    </row>
+    <row r="114" spans="1:8">
       <c r="A114" s="1">
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C114" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D114">
-        <v>0.8671875</v>
+        <v>0.09375</v>
       </c>
       <c r="E114">
-        <v>0.1328125</v>
+        <v>0.4765625</v>
       </c>
       <c r="F114">
-        <v>0</v>
+        <v>0.3671875</v>
       </c>
       <c r="G114">
-        <v>0</v>
+        <v>0.0625</v>
       </c>
       <c r="H114">
         <v>0</v>
       </c>
-      <c r="I114">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9">
+    </row>
+    <row r="115" spans="1:8">
       <c r="A115" s="1">
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C115" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D115">
-        <v>0.6993147924224103</v>
+        <v>0.0008061265618702137</v>
       </c>
       <c r="E115">
-        <v>0.3006852075775897</v>
+        <v>0.1523579201934704</v>
       </c>
       <c r="F115">
-        <v>0</v>
+        <v>0.6876259572752922</v>
       </c>
       <c r="G115">
-        <v>0</v>
+        <v>0.09794437726723096</v>
       </c>
       <c r="H115">
-        <v>0</v>
-      </c>
-      <c r="I115">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9">
+        <v>0.06126561870213623</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8">
       <c r="A116" s="1">
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C116" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D116">
-        <v>1</v>
+        <v>0.3725490196078431</v>
       </c>
       <c r="E116">
-        <v>0</v>
+        <v>0.571078431372549</v>
       </c>
       <c r="F116">
-        <v>0</v>
+        <v>0.05637254901960784</v>
       </c>
       <c r="G116">
         <v>0</v>
@@ -4490,28 +4142,25 @@
       <c r="H116">
         <v>0</v>
       </c>
-      <c r="I116">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9">
+    </row>
+    <row r="117" spans="1:8">
       <c r="A117" s="1">
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C117" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D117">
-        <v>0.8699176861735061</v>
+        <v>0.05574563820302633</v>
       </c>
       <c r="E117">
-        <v>0.130082313826494</v>
+        <v>0.3222695429554966</v>
       </c>
       <c r="F117">
-        <v>0</v>
+        <v>0.621984818841477</v>
       </c>
       <c r="G117">
         <v>0</v>
@@ -4519,57 +4168,51 @@
       <c r="H117">
         <v>0</v>
       </c>
-      <c r="I117">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9">
+    </row>
+    <row r="118" spans="1:8">
       <c r="A118" s="1">
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C118" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D118">
-        <v>0.6208164419722825</v>
+        <v>0.1125671726218535</v>
       </c>
       <c r="E118">
-        <v>0.3158291694164231</v>
+        <v>0.306307155651928</v>
       </c>
       <c r="F118">
-        <v>0.06335438861129443</v>
+        <v>0.2847176392948053</v>
       </c>
       <c r="G118">
-        <v>0</v>
+        <v>0.1680022626567361</v>
       </c>
       <c r="H118">
-        <v>0</v>
-      </c>
-      <c r="I118">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9">
+        <v>0.1284057697746771</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8">
       <c r="A119" s="1">
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C119" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D119">
-        <v>1</v>
+        <v>0.1184126111263862</v>
       </c>
       <c r="E119">
-        <v>0</v>
+        <v>0.6808725139767208</v>
       </c>
       <c r="F119">
-        <v>0</v>
+        <v>0.200714874896893</v>
       </c>
       <c r="G119">
         <v>0</v>
@@ -4577,57 +4220,51 @@
       <c r="H119">
         <v>0</v>
       </c>
-      <c r="I119">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9">
+    </row>
+    <row r="120" spans="1:8">
       <c r="A120" s="1">
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C120" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D120">
-        <v>0.4270571598864048</v>
+        <v>0.01086867600827422</v>
       </c>
       <c r="E120">
-        <v>0.5729428401135952</v>
+        <v>0.1375413418724508</v>
       </c>
       <c r="F120">
-        <v>0</v>
+        <v>0.4399827036123739</v>
       </c>
       <c r="G120">
-        <v>0</v>
+        <v>0.3543422113665315</v>
       </c>
       <c r="H120">
-        <v>0</v>
-      </c>
-      <c r="I120">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9">
+        <v>0.05726506714036954</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8">
       <c r="A121" s="1">
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C121" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D121">
-        <v>1</v>
+        <v>0.5887640449438202</v>
       </c>
       <c r="E121">
-        <v>0</v>
+        <v>0.301123595505618</v>
       </c>
       <c r="F121">
-        <v>0</v>
+        <v>0.1101123595505618</v>
       </c>
       <c r="G121">
         <v>0</v>
@@ -4635,28 +4272,25 @@
       <c r="H121">
         <v>0</v>
       </c>
-      <c r="I121">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="122" spans="1:9">
+    </row>
+    <row r="122" spans="1:8">
       <c r="A122" s="1">
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C122" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D122">
-        <v>1</v>
+        <v>0.0971690895179801</v>
       </c>
       <c r="E122">
-        <v>0</v>
+        <v>0.6166794185156848</v>
       </c>
       <c r="F122">
-        <v>0</v>
+        <v>0.2861514919663351</v>
       </c>
       <c r="G122">
         <v>0</v>
@@ -4664,36 +4298,30 @@
       <c r="H122">
         <v>0</v>
       </c>
-      <c r="I122">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9">
+    </row>
+    <row r="123" spans="1:8">
       <c r="A123" s="1">
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C123" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D123">
-        <v>0.7434551560003912</v>
+        <v>0.05001141068692335</v>
       </c>
       <c r="E123">
-        <v>0.2565448439996088</v>
+        <v>0.4811723665764679</v>
       </c>
       <c r="F123">
-        <v>0</v>
+        <v>0.2732696508329802</v>
       </c>
       <c r="G123">
-        <v>0</v>
+        <v>0.1955465719036286</v>
       </c>
       <c r="H123">
-        <v>0</v>
-      </c>
-      <c r="I123">
         <v>0</v>
       </c>
     </row>
